--- a/test_物件管理/test_契約管理_値上げ対象抽出.xlsx
+++ b/test_物件管理/test_契約管理_値上げ対象抽出.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="707">
   <si>
     <t>URL:</t>
   </si>
@@ -2004,23 +2004,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>179</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>003-001-180</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>180</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>003-001-181</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>181</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2283,10 +2271,6 @@
   <si>
     <t>検索駐車場名称</t>
     <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>178</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>003-001-178-検索駐車場名称</t>
@@ -5394,7 +5378,7 @@
         <v>164</v>
       </c>
       <c r="G72" s="120" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H72" s="69" t="s">
         <v>569</v>
@@ -5922,13 +5906,13 @@
         <v>164</v>
       </c>
       <c r="F77" s="111" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G77" s="120" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="H77" s="120" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="I77" s="35" t="s">
         <v>249</v>
@@ -5994,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="AD77" s="120" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="AE77" s="35" t="s">
         <v>77</v>
@@ -6145,13 +6129,13 @@
         <v>164</v>
       </c>
       <c r="F78" s="111" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G78" s="120" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="H78" s="120" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="I78" s="16" t="s">
         <v>164</v>
@@ -6368,13 +6352,13 @@
         <v>164</v>
       </c>
       <c r="F79" s="111" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G79" s="111" t="s">
         <v>241</v>
       </c>
       <c r="H79" s="120" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="I79" s="16" t="s">
         <v>164</v>
@@ -6591,13 +6575,13 @@
         <v>164</v>
       </c>
       <c r="F80" s="111" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G80" s="111" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H80" s="120" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="I80" s="16" t="s">
         <v>164</v>
@@ -6663,7 +6647,7 @@
         <v>164</v>
       </c>
       <c r="AD80" s="120" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="AE80" s="15" t="s">
         <v>77</v>
@@ -6814,13 +6798,13 @@
         <v>164</v>
       </c>
       <c r="F81" s="111" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G81" s="111" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="H81" s="120" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="I81" s="16" t="s">
         <v>164</v>
@@ -7037,13 +7021,13 @@
         <v>164</v>
       </c>
       <c r="F82" s="111" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G82" s="111" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="H82" s="120" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I82" s="16" t="s">
         <v>164</v>
@@ -7109,7 +7093,7 @@
         <v>164</v>
       </c>
       <c r="AD82" s="120" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AE82" s="15" t="s">
         <v>77</v>
@@ -9647,7 +9631,7 @@
     <row r="106" spans="1:143" s="38" customFormat="1">
       <c r="A106" s="106"/>
       <c r="B106" s="108" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C106" s="108" t="s">
         <v>85</v>
@@ -9662,7 +9646,7 @@
         <v>164</v>
       </c>
       <c r="G106" s="108" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H106" s="108" t="s">
         <v>180</v>
@@ -9856,7 +9840,7 @@
     <row r="107" spans="1:143" s="110" customFormat="1">
       <c r="A107" s="106"/>
       <c r="B107" s="108" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C107" s="108" t="s">
         <v>85</v>
@@ -9871,7 +9855,7 @@
         <v>164</v>
       </c>
       <c r="G107" s="108" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="H107" s="108" t="s">
         <v>180</v>
@@ -10065,7 +10049,7 @@
     <row r="108" spans="1:143" s="110" customFormat="1">
       <c r="A108" s="106"/>
       <c r="B108" s="108" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C108" s="108" t="s">
         <v>85</v>
@@ -10080,7 +10064,7 @@
         <v>164</v>
       </c>
       <c r="G108" s="108" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H108" s="108" t="s">
         <v>180</v>
@@ -10274,7 +10258,7 @@
     <row r="109" spans="1:143" s="110" customFormat="1">
       <c r="A109" s="106"/>
       <c r="B109" s="108" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C109" s="108" t="s">
         <v>86</v>
@@ -10289,7 +10273,7 @@
         <v>164</v>
       </c>
       <c r="G109" s="108" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H109" s="108" t="s">
         <v>180</v>
@@ -10340,7 +10324,7 @@
         <v>156</v>
       </c>
       <c r="X109" s="108" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="Y109" s="108" t="s">
         <v>111</v>
@@ -12659,7 +12643,7 @@
         <v>217</v>
       </c>
       <c r="H118" s="124" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="I118" s="121" t="s">
         <v>164</v>
@@ -12899,13 +12883,13 @@
         <v>164</v>
       </c>
       <c r="CJ118" s="120" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="CK118" s="120" t="s">
         <v>593</v>
       </c>
       <c r="CL118" s="120" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="CM118" s="121" t="s">
         <v>164</v>
@@ -13080,13 +13064,13 @@
         <v>164</v>
       </c>
       <c r="F119" s="120" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G119" s="120" t="s">
         <v>217</v>
       </c>
       <c r="H119" s="124" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="I119" s="121" t="s">
         <v>164</v>
@@ -13666,13 +13650,13 @@
         <v>164</v>
       </c>
       <c r="F120" s="120" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G120" s="120" t="s">
         <v>217</v>
       </c>
       <c r="H120" s="120" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="I120" s="121" t="s">
         <v>164</v>
@@ -13912,13 +13896,13 @@
         <v>164</v>
       </c>
       <c r="CJ120" s="120" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="CK120" s="120" t="s">
         <v>593</v>
       </c>
       <c r="CL120" s="120" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="CM120" s="121" t="s">
         <v>164</v>
@@ -14858,7 +14842,7 @@
     </row>
     <row r="131" spans="1:36" s="115" customFormat="1">
       <c r="B131" s="120" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C131" s="120" t="s">
         <v>85</v>
@@ -14909,7 +14893,7 @@
         <v>164</v>
       </c>
       <c r="S131" s="120" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="T131" s="121" t="s">
         <v>164</v>
@@ -14956,7 +14940,7 @@
     </row>
     <row r="132" spans="1:36" s="115" customFormat="1">
       <c r="B132" s="120" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C132" s="120" t="s">
         <v>85</v>
@@ -15007,7 +14991,7 @@
         <v>164</v>
       </c>
       <c r="S132" s="120" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="T132" s="121" t="s">
         <v>164</v>
@@ -15063,7 +15047,7 @@
     </row>
     <row r="135" spans="1:36">
       <c r="B135" s="112" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="136" spans="1:36">
@@ -15172,7 +15156,7 @@
         <v>477</v>
       </c>
       <c r="I137" s="120" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="J137" s="51" t="s">
         <v>164</v>
@@ -15184,7 +15168,7 @@
         <v>217</v>
       </c>
       <c r="M137" s="111" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="N137" s="120" t="s">
         <v>217</v>
@@ -15255,7 +15239,7 @@
         <v>477</v>
       </c>
       <c r="I138" s="120" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="J138" s="51" t="s">
         <v>164</v>
@@ -15267,7 +15251,7 @@
         <v>218</v>
       </c>
       <c r="M138" s="111" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="N138" s="120" t="s">
         <v>218</v>
@@ -15338,7 +15322,7 @@
         <v>477</v>
       </c>
       <c r="I139" s="120" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="J139" s="51" t="s">
         <v>164</v>
@@ -15350,7 +15334,7 @@
         <v>244</v>
       </c>
       <c r="M139" s="120" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="N139" s="120" t="s">
         <v>244</v>
@@ -15433,7 +15417,7 @@
         <v>245</v>
       </c>
       <c r="M140" s="111" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="N140" s="120" t="s">
         <v>212</v>
@@ -15516,10 +15500,10 @@
         <v>212</v>
       </c>
       <c r="M141" s="120" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="N141" s="120" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="O141" s="120">
         <v>3887</v>
@@ -15566,7 +15550,7 @@
     </row>
     <row r="142" spans="1:36" s="115" customFormat="1">
       <c r="B142" s="120" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C142" s="120" t="s">
         <v>85</v>
@@ -15596,19 +15580,19 @@
         <v>164</v>
       </c>
       <c r="L142" s="120" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="M142" s="111" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="N142" s="120" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="O142" s="120">
         <v>103</v>
       </c>
       <c r="P142" s="120" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="Q142" s="121" t="s">
         <v>164</v>
@@ -15623,7 +15607,7 @@
         <v>11</v>
       </c>
       <c r="U142" s="120" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="V142" s="121" t="s">
         <v>164</v>
@@ -15649,7 +15633,7 @@
     </row>
     <row r="143" spans="1:36" s="115" customFormat="1">
       <c r="B143" s="120" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C143" s="120" t="s">
         <v>85</v>
@@ -15679,19 +15663,19 @@
         <v>164</v>
       </c>
       <c r="L143" s="120" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="M143" s="111" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="N143" s="111" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="O143" s="120">
         <v>3887</v>
       </c>
       <c r="P143" s="120" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="Q143" s="121" t="s">
         <v>164</v>
@@ -15706,7 +15690,7 @@
         <v>11</v>
       </c>
       <c r="U143" s="120" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="V143" s="121" t="s">
         <v>164</v>
@@ -15756,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="115" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="88" customFormat="1"/>
@@ -15770,7 +15754,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="88" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="I4" s="102"/>
     </row>
@@ -15779,7 +15763,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="88" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="I5"/>
     </row>
@@ -15788,13 +15772,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
       <c r="H6" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
@@ -15813,13 +15797,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="119" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C8" s="123" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D8" s="118" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="115" customFormat="1" ht="14.25">
@@ -15827,13 +15811,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="119" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C9" s="123" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D9" s="118" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="115" customFormat="1" ht="14.25">
@@ -15841,13 +15825,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="119" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C10" s="123" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D10" s="118" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="115" customFormat="1" ht="14.25">
@@ -15855,13 +15839,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="119" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C11" s="123" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D11" s="118" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="115" customFormat="1" ht="14.25">
@@ -15875,13 +15859,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="119" t="s">
+        <v>676</v>
+      </c>
+      <c r="C13" s="123" t="s">
+        <v>677</v>
+      </c>
+      <c r="D13" s="118" t="s">
         <v>679</v>
-      </c>
-      <c r="C13" s="123" t="s">
-        <v>680</v>
-      </c>
-      <c r="D13" s="118" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="115" customFormat="1" ht="14.25">
@@ -15889,10 +15873,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="115" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="H14" s="115" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="88" customFormat="1" ht="14.25">
@@ -15900,7 +15884,7 @@
         <v>441</v>
       </c>
       <c r="B15" s="105" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G15" s="107"/>
     </row>
@@ -15909,13 +15893,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="119" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C16" s="123" t="s">
         <v>248</v>
       </c>
       <c r="D16" s="118" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -15923,10 +15907,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="115" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="H17" s="115" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -15934,7 +15918,7 @@
         <v>441</v>
       </c>
       <c r="B18" s="105" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -15942,13 +15926,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="119" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C19" s="123" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D19" s="118" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -15956,10 +15940,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="115" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="H20" s="115" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -15967,7 +15951,7 @@
         <v>441</v>
       </c>
       <c r="B21" s="105" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -15975,13 +15959,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="119" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C22" s="123" t="s">
         <v>564</v>
       </c>
       <c r="D22" s="118" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -15989,10 +15973,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="115" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="H23" s="115" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -16000,7 +15984,7 @@
         <v>441</v>
       </c>
       <c r="B24" s="105" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G24" s="107"/>
     </row>
@@ -16015,7 +15999,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="115" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="115" customFormat="1"/>
@@ -16029,7 +16013,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="115" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -16037,7 +16021,7 @@
         <v>15</v>
       </c>
       <c r="B31" s="115" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -16045,11 +16029,11 @@
         <v>15</v>
       </c>
       <c r="B32" s="116" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C32" s="113"/>
       <c r="H32" s="115" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -16063,13 +16047,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="119" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C34" s="123" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D34" s="118" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -16077,13 +16061,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="119" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C35" s="123" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D35" s="118" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -16091,13 +16075,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="119" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C36" s="123" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D36" s="118" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -16105,13 +16089,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="119" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C37" s="123" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D37" s="118" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -16119,10 +16103,10 @@
         <v>15</v>
       </c>
       <c r="B38" s="115" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="H38" s="115" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -16130,7 +16114,7 @@
         <v>441</v>
       </c>
       <c r="B39" s="105" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G39" s="107"/>
     </row>
@@ -16139,13 +16123,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="119" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C40" s="123" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D40" s="118" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -16153,13 +16137,13 @@
         <v>1</v>
       </c>
       <c r="B41" s="119" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C41" s="123" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D41" s="118" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -16167,10 +16151,10 @@
         <v>15</v>
       </c>
       <c r="B42" s="115" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="H42" s="115" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -16178,7 +16162,7 @@
         <v>441</v>
       </c>
       <c r="B43" s="105" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="G43" s="107"/>
     </row>
@@ -16187,10 +16171,10 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="H44" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -16222,7 +16206,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="115" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="115" customFormat="1"/>
@@ -16236,7 +16220,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="115" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -16244,7 +16228,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="115" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -16252,11 +16236,11 @@
         <v>15</v>
       </c>
       <c r="B6" s="116" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C6" s="113"/>
       <c r="H6" s="115" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -16270,13 +16254,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="119" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C8" s="123" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D8" s="118" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -16284,13 +16268,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="119" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C9" s="123" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D9" s="118" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -16298,13 +16282,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="119" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C10" s="123" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D10" s="118" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -16312,13 +16296,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="119" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C11" s="123" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D11" s="118" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="115" customFormat="1" ht="14.25">
@@ -16326,10 +16310,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="115" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="H12" s="115" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25">
@@ -16337,10 +16321,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="H14" s="115" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25">
@@ -16348,10 +16332,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="115" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="H15" s="115" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25">
@@ -16359,7 +16343,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="88" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H16" s="88">
         <v>1</v>
@@ -16370,7 +16354,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="88" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="H17" s="88">
         <v>2</v>
@@ -16381,18 +16365,18 @@
         <v>15</v>
       </c>
       <c r="B18" s="88" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="H18" s="88" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.25">
       <c r="A19" s="117" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B19" s="115" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -16536,16 +16520,16 @@
         <v>164</v>
       </c>
       <c r="G5" s="127" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="H5" s="127" t="s">
         <v>172</v>
       </c>
       <c r="I5" s="127" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="J5" s="127" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="K5" s="127" t="s">
         <v>492</v>
@@ -16584,7 +16568,7 @@
         <v>217</v>
       </c>
       <c r="W5" s="127" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="X5" s="128" t="s">
         <v>164</v>
@@ -16738,16 +16722,16 @@
         <v>164</v>
       </c>
       <c r="G6" s="127" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="H6" s="127" t="s">
         <v>147</v>
       </c>
       <c r="I6" s="127" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="J6" s="127" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="K6" s="127" t="s">
         <v>493</v>
@@ -16934,7 +16918,7 @@
   <dimension ref="A4:BC63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16989,42 +16973,31 @@
       </c>
       <c r="E5" s="122"/>
       <c r="F5" s="122"/>
-      <c r="I5" s="122" t="s">
-        <v>683</v>
-      </c>
+      <c r="I5" s="122"/>
     </row>
     <row r="6" spans="2:55" s="103" customFormat="1" ht="12">
       <c r="B6" s="103" t="s">
         <v>617</v>
       </c>
-      <c r="I6" s="103" t="s">
-        <v>618</v>
-      </c>
       <c r="L6" s="122"/>
     </row>
     <row r="7" spans="2:55" s="103" customFormat="1" ht="12">
       <c r="B7" s="103" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D7" s="122" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E7" s="122" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F7" s="122" t="s">
-        <v>625</v>
-      </c>
-      <c r="I7" s="103" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="8" spans="2:55" s="103" customFormat="1" ht="12">
       <c r="B8" s="103" t="s">
-        <v>621</v>
-      </c>
-      <c r="I8" s="103" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="L8" s="122"/>
     </row>
